--- a/test/dataClass.xlsx
+++ b/test/dataClass.xlsx
@@ -9,6 +9,8 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="154">
   <si>
     <t xml:space="preserve">dcterms</t>
   </si>
@@ -464,6 +466,24 @@
   </si>
   <si>
     <t xml:space="preserve">dbpprop-id:nativeLang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tribhuwana Wijayatunggadewi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mother</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mowl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">famtree:hasMother</t>
+  </si>
+  <si>
+    <t xml:space="preserve">famtree:hasFather</t>
   </si>
 </sst>
 </file>
@@ -478,6 +498,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -566,20 +587,20 @@
   <dimension ref="B1:I86"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.2551020408163"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.1785714285714"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.7040816326531"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.7244897959184"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.0612244897959"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.4183673469388"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="13.1938775510204"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.0663265306122"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.75"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.3775510204082"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.6836734693878"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1207,4 +1228,94 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A2:A3"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>149</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A2:B4"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.0204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.7142857142857"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>153</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>